--- a/data/insomnia_node.xlsx
+++ b/data/insomnia_node.xlsx
@@ -1,13 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87236\Projects\SR_ZJUPH_KnowledgeGraph\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1025E-2C14-43C0-8929-1489F02620D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4440" yWindow="1356" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAIN" sheetId="1" r:id="rId1"/>
+    <sheet name="TYPE" sheetId="2" r:id="rId2"/>
+    <sheet name="GAD_7" sheetId="7" r:id="rId3"/>
+    <sheet name="ESS" sheetId="3" r:id="rId4"/>
+    <sheet name="PHQ_9" sheetId="5" r:id="rId5"/>
+    <sheet name="PHQ_15" sheetId="6" r:id="rId6"/>
+    <sheet name="PSQI" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,13 +30,480 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="152">
+  <si>
+    <t>ZH_NAME</t>
+  </si>
+  <si>
+    <t>EN_NAME</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>LAYER</t>
+  </si>
+  <si>
+    <t>失眠症</t>
+  </si>
+  <si>
+    <t>INSOMNIA</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>普通失眠但刺激敏感</t>
+  </si>
+  <si>
+    <t>重度失眠</t>
+  </si>
+  <si>
+    <t>普通失眠但刺激不敏感类型</t>
+  </si>
+  <si>
+    <t>高反应性的轻度失眠</t>
+  </si>
+  <si>
+    <t>低反应性的轻度失眠</t>
+  </si>
+  <si>
+    <t>Highly Distressed Insomnia</t>
+  </si>
+  <si>
+    <t>Moderately Distressed Insomnia (Reward-sensitive)</t>
+  </si>
+  <si>
+    <t>Moderately Distressed Insomnia (Reward-insensitive)</t>
+  </si>
+  <si>
+    <t>Mild Insomnia (Environment-sensitive)</t>
+  </si>
+  <si>
+    <t>Mild Insomnia (Environment-insensitive)</t>
+  </si>
+  <si>
+    <t>SUB_TYPE</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>MODERATE_SENSITIVE</t>
+  </si>
+  <si>
+    <t>MODERATE_INSENSITIVE</t>
+  </si>
+  <si>
+    <t>MILD_SENSITIVE</t>
+  </si>
+  <si>
+    <t>MILD_INSENSITIVE</t>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+  </si>
+  <si>
+    <t>REPRESENTATION</t>
+  </si>
+  <si>
+    <t>DUMMY</t>
+  </si>
+  <si>
+    <t>PREVENTION</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>SYMPTOM</t>
+  </si>
+  <si>
+    <t>SIGNS</t>
+  </si>
+  <si>
+    <t>INSPECTION</t>
+  </si>
+  <si>
+    <t>COMPLICATION</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>PHQ_9</t>
+  </si>
+  <si>
+    <t>PHQ_15</t>
+  </si>
+  <si>
+    <t>GAD_7</t>
+  </si>
+  <si>
+    <t>感觉紧张，焦虑或急切</t>
+  </si>
+  <si>
+    <t>Feeling_nervous__anxious__or_anxious</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t>不能够停止或控制担忧</t>
+  </si>
+  <si>
+    <t>Inability_to_stop_or_control_worry</t>
+  </si>
+  <si>
+    <t>对各种各样的事情担忧过多</t>
+  </si>
+  <si>
+    <t>Worrying_too_much_about_all_kinds_of_things</t>
+  </si>
+  <si>
+    <t>很难放松下来</t>
+  </si>
+  <si>
+    <t>Hard_to_relax</t>
+  </si>
+  <si>
+    <t>由于不安而无法静坐</t>
+  </si>
+  <si>
+    <t>Unable_to_sit_still_due_to_restlessness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">变得容易烦恼或急躁 </t>
+  </si>
+  <si>
+    <t>Become_easily_irritable_or_irritable</t>
+  </si>
+  <si>
+    <t>感到似乎将有可怕的事情发生而害怕</t>
+  </si>
+  <si>
+    <t>Fear_that_something_terrible_is_about_to_happen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完全不会 </t>
+  </si>
+  <si>
+    <t>Not_at_all</t>
+  </si>
+  <si>
+    <t>好几天</t>
+  </si>
+  <si>
+    <t>A_few_days</t>
+  </si>
+  <si>
+    <t>超过一周</t>
+  </si>
+  <si>
+    <t>More_than_a_week</t>
+  </si>
+  <si>
+    <t>几乎每天</t>
+  </si>
+  <si>
+    <t>Almost_everyday</t>
+  </si>
+  <si>
+    <t>GAD_7_1</t>
+  </si>
+  <si>
+    <t>GAD_7_2</t>
+  </si>
+  <si>
+    <t>GAD_7_3</t>
+  </si>
+  <si>
+    <t>GAD_7_4</t>
+  </si>
+  <si>
+    <t>GAD_7_5</t>
+  </si>
+  <si>
+    <t>GAD_7_6</t>
+  </si>
+  <si>
+    <t>GAD_7_7</t>
+  </si>
+  <si>
+    <t>GAD_7_QUESTION</t>
+  </si>
+  <si>
+    <t>GAD_7_ANSWER</t>
+  </si>
+  <si>
+    <t>坐着看书时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看电视时 </t>
+  </si>
+  <si>
+    <t>连续乘车一小时没有休息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在公共场所静坐时  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果环境允许的话，午后躺下休息时  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">坐着与别人谈话时 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">午饭（不饮酒）后静坐时 </t>
+  </si>
+  <si>
+    <t>乘坐出租车遇到交通阻塞，停车几分钟时</t>
+  </si>
+  <si>
+    <t>ESS_QUESTION</t>
+  </si>
+  <si>
+    <t>ESS_1</t>
+  </si>
+  <si>
+    <t>ESS_2</t>
+  </si>
+  <si>
+    <t>ESS_3</t>
+  </si>
+  <si>
+    <t>ESS_4</t>
+  </si>
+  <si>
+    <t>ESS_5</t>
+  </si>
+  <si>
+    <t>ESS_6</t>
+  </si>
+  <si>
+    <t>ESS_7</t>
+  </si>
+  <si>
+    <t>ESS_8</t>
+  </si>
+  <si>
+    <t>从不打瞌睡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轻微瞌睡 </t>
+  </si>
+  <si>
+    <t>中度瞌睡</t>
+  </si>
+  <si>
+    <t>重度瞌睡</t>
+  </si>
+  <si>
+    <t>ESS_ANSWER'</t>
+  </si>
+  <si>
+    <t>做事时提不起劲或没有兴趣</t>
+  </si>
+  <si>
+    <t>感到心情低落、沮丧或绝望</t>
+  </si>
+  <si>
+    <t>入睡困难、睡不安稳或睡眠过多</t>
+  </si>
+  <si>
+    <t>感觉疲倦或没有活力</t>
+  </si>
+  <si>
+    <t>食欲不振或吃太多</t>
+  </si>
+  <si>
+    <t>觉得自己很糟，或觉得自己很失败，或让自己或家人失望</t>
+  </si>
+  <si>
+    <t>对事物专注有困难，例如阅读报纸或看电视时不能集中注意力</t>
+  </si>
+  <si>
+    <t>动作或说话速度缓慢到别人已经觉察？或正好相反，烦躁或坐立不安、动来动去的情况更胜于平常</t>
+  </si>
+  <si>
+    <t>有不如死掉或用某种方式伤害自己的念头</t>
+  </si>
+  <si>
+    <t>PHQ_9_QUESTION</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>有几天</t>
+  </si>
+  <si>
+    <t>一半以上天数</t>
+  </si>
+  <si>
+    <t>PHQ_9_1</t>
+  </si>
+  <si>
+    <t>PHQ_9_2</t>
+  </si>
+  <si>
+    <t>PHQ_9_3</t>
+  </si>
+  <si>
+    <t>PHQ_9_4</t>
+  </si>
+  <si>
+    <t>PHQ_9_5</t>
+  </si>
+  <si>
+    <t>PHQ_9_6</t>
+  </si>
+  <si>
+    <t>PHQ_9_7</t>
+  </si>
+  <si>
+    <t>PHQ_9_8</t>
+  </si>
+  <si>
+    <t>PHQ_9_9</t>
+  </si>
+  <si>
+    <t>PHQ_9_ANSWER</t>
+  </si>
+  <si>
+    <t>胃痛</t>
+  </si>
+  <si>
+    <t>背痛</t>
+  </si>
+  <si>
+    <t>手臂、腿、或关节（膝盖、髋部等）的疼痛</t>
+  </si>
+  <si>
+    <t>痛经或其他与月经有关的问题（女性作答）</t>
+  </si>
+  <si>
+    <t>性生活中有疼痛或其他问题</t>
+  </si>
+  <si>
+    <t>头痛</t>
+  </si>
+  <si>
+    <t>胸痛</t>
+  </si>
+  <si>
+    <t>头晕</t>
+  </si>
+  <si>
+    <t>偶尔会昏倒</t>
+  </si>
+  <si>
+    <t>感到心脏怦怦跳或心跳的很快</t>
+  </si>
+  <si>
+    <t>胸闷或者透不过气来</t>
+  </si>
+  <si>
+    <t>便秘，腹泻或者肠道不舒服</t>
+  </si>
+  <si>
+    <t>恶心、胃胀气或消化不良</t>
+  </si>
+  <si>
+    <t>感到疲劳或者无精打采</t>
+  </si>
+  <si>
+    <t>睡眠有问题或烦恼</t>
+  </si>
+  <si>
+    <t>PHQ_15_QUESTION</t>
+  </si>
+  <si>
+    <t>PHQ_15_1</t>
+  </si>
+  <si>
+    <t>PHQ_15_2</t>
+  </si>
+  <si>
+    <t>PHQ_15_3</t>
+  </si>
+  <si>
+    <t>PHQ_15_4</t>
+  </si>
+  <si>
+    <t>PHQ_15_5</t>
+  </si>
+  <si>
+    <t>PHQ_15_6</t>
+  </si>
+  <si>
+    <t>PHQ_15_7</t>
+  </si>
+  <si>
+    <t>PHQ_15_8</t>
+  </si>
+  <si>
+    <t>PHQ_15_9</t>
+  </si>
+  <si>
+    <t>PHQ_15_10</t>
+  </si>
+  <si>
+    <t>PHQ_15_11</t>
+  </si>
+  <si>
+    <t>PHQ_15_12</t>
+  </si>
+  <si>
+    <t>PHQ_15_13</t>
+  </si>
+  <si>
+    <t>PHQ_15_14</t>
+  </si>
+  <si>
+    <t>PHQ_15_15</t>
+  </si>
+  <si>
+    <t>PHQ_15_ANSWER</t>
+  </si>
+  <si>
+    <t>没有困扰</t>
+  </si>
+  <si>
+    <t>有些困扰</t>
+  </si>
+  <si>
+    <t>很多困扰</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,11 +528,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +812,3082 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DEF6E2-996A-41D3-97E0-A3A373B7CF3E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453996CC-B80C-43A5-96F4-B5C4F054780E}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BEEE13-8037-4D0F-9521-5DFE55031571}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A1C109-AF65-4AAD-8E9E-96E7F9762D29}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EFD36A-3BBB-41D6-9417-450C68E3E4CC}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A157BE9A-98A3-4E25-A803-2AF15A765668}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/insomnia_node.xlsx
+++ b/data/insomnia_node.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87236\Projects\SR_ZJUPH_KnowledgeGraph\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZJU_Research\SR_ZJUPH_KnowledgeGraph\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1025E-2C14-43C0-8929-1489F02620D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772FD9D4-DB7E-4E03-A892-E286847C2F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1356" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="3576" windowWidth="11784" windowHeight="14100" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="210">
   <si>
     <t>ZH_NAME</t>
   </si>
@@ -487,24 +487,241 @@
   </si>
   <si>
     <t>很多困扰</t>
+  </si>
+  <si>
+    <t>PSQI</t>
+  </si>
+  <si>
+    <t>近1个月，晚上上床睡觉通常几点钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月，通常早上几点起床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月，从上床到入睡通常需要几分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月，每夜通常实际睡眠几小时(不等于卧床时间)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因入睡困难(30分钟内不能入睡)影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因夜间易醒或早醒影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因夜间去厕所影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因呼吸不畅影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因咳嗽或鼾声高影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因感觉冷影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因感觉热影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因做恶梦影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因疼痛不适影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月 ，因其它影响睡眠的事情影响睡眠而烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月，总的来说，您认为己的睡眠质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月，您用药物催眠的情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月，您常感到困倦吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1个月，您做事情的精力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于15分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16到30分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31到60分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于60分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQI_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQI_5</t>
+  </si>
+  <si>
+    <t>PSQI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUESTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQI_QUESTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQI_ANSWER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>平均每周小于1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每周1到2次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每周大于等于3次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQI_6</t>
+  </si>
+  <si>
+    <t>PSQI_7</t>
+  </si>
+  <si>
+    <t>PSQI_8</t>
+  </si>
+  <si>
+    <t>PSQI_9</t>
+  </si>
+  <si>
+    <t>PSQI_10</t>
+  </si>
+  <si>
+    <t>PSQI_11</t>
+  </si>
+  <si>
+    <t>PSQI_12</t>
+  </si>
+  <si>
+    <t>PSQI_13</t>
+  </si>
+  <si>
+    <t>PSQI_14</t>
+  </si>
+  <si>
+    <t>PSQI_15</t>
+  </si>
+  <si>
+    <t>很好</t>
+  </si>
+  <si>
+    <t>较好</t>
+  </si>
+  <si>
+    <t>较差</t>
+  </si>
+  <si>
+    <t>很差</t>
+  </si>
+  <si>
+    <t>PSQI_16</t>
+  </si>
+  <si>
+    <t>PSQI_17</t>
+  </si>
+  <si>
+    <t>偶尔有</t>
+  </si>
+  <si>
+    <t>有时有</t>
+  </si>
+  <si>
+    <t>经常有</t>
+  </si>
+  <si>
+    <t>大于7小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6到7小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5到6小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于5小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQI_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQI_18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -819,7 +1036,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
@@ -827,7 +1044,7 @@
     <col min="5" max="5" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -861,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -878,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -895,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -912,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -929,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -947,6 +1164,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -960,24 +1178,24 @@
       <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -994,7 +1212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1011,12 +1229,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1029,13 +1248,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1069,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1086,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1103,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1120,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1137,7 +1356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1154,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1171,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1188,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1205,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1222,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1239,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1256,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1273,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1290,7 +1509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -1307,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1324,7 +1543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1341,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1358,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1375,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1392,7 +1611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1409,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -1426,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1443,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1460,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1477,7 +1696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1494,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1511,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1528,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1545,7 +1764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1562,7 +1781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -1579,7 +1798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1596,7 +1815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -1613,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -1630,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -1647,7 +1866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -1678,12 +1897,12 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1717,7 +1936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1731,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1745,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1759,7 +1978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1773,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1787,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1801,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -1815,7 +2034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1829,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -1843,7 +2062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1857,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1871,7 +2090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -1885,7 +2104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1899,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1913,7 +2132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -1927,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -1941,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1955,7 +2174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1969,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1983,7 +2202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -1997,7 +2216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2011,7 +2230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -2025,7 +2244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -2039,7 +2258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -2053,7 +2272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2067,7 +2286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -2081,7 +2300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -2095,7 +2314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2109,7 +2328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -2123,7 +2342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2137,7 +2356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -2151,7 +2370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2165,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -2179,7 +2398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -2193,7 +2412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -2207,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2221,7 +2440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2235,7 +2454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2249,7 +2468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -2263,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2288,15 +2507,15 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2330,7 +2549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2344,7 +2563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2358,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -2372,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2386,7 +2605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2400,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -2414,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -2428,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -2442,7 +2661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2456,7 +2675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -2470,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2484,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -2498,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2512,7 +2731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2526,7 +2745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2540,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -2554,7 +2773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2568,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -2582,7 +2801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -2596,7 +2815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2610,7 +2829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2624,7 +2843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -2638,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2652,7 +2871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -2666,7 +2885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2680,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2694,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -2708,7 +2927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2722,7 +2941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2736,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -2750,7 +2969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -2764,7 +2983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -2778,7 +2997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -2792,7 +3011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -2806,7 +3025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -2820,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -2834,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2848,7 +3067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -2862,7 +3081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -2876,7 +3095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -2890,7 +3109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2904,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2918,7 +3137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -2932,7 +3151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2946,7 +3165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2974,13 +3193,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3014,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -3028,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3042,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3056,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -3070,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -3084,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -3098,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -3112,7 +3331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3126,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -3140,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -3154,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -3168,7 +3387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -3182,7 +3401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3196,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3210,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -3224,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -3238,7 +3457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -3252,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3266,7 +3485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3280,7 +3499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -3294,7 +3513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -3308,7 +3527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -3322,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -3336,7 +3555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -3350,7 +3569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -3364,7 +3583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -3378,7 +3597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -3392,7 +3611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -3406,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -3420,7 +3639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -3434,7 +3653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3448,7 +3667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -3462,7 +3681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -3476,7 +3695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3490,7 +3709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3504,7 +3723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3518,7 +3737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -3532,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -3546,7 +3765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -3560,7 +3779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -3574,7 +3793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -3588,7 +3807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>151</v>
       </c>
@@ -3602,7 +3821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -3616,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -3630,7 +3849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -3644,7 +3863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -3658,7 +3877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -3672,7 +3891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -3686,7 +3905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -3700,7 +3919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -3714,7 +3933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -3728,7 +3947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -3742,7 +3961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -3756,7 +3975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -3770,7 +3989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -3784,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -3798,7 +4017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>151</v>
       </c>
@@ -3812,7 +4031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -3826,7 +4045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -3840,7 +4059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -3862,15 +4081,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A157BE9A-98A3-4E25-A803-2AF15A765668}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +4110,925 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>